--- a/logs/EC - Consolidated log.xlsx
+++ b/logs/EC - Consolidated log.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Test1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Test2" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Test3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>Read only</t>
   </si>
@@ -37,16 +39,16 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Select random points</t>
-  </si>
-  <si>
-    <t>Select random ranges</t>
-  </si>
-  <si>
     <t>Update index</t>
   </si>
   <si>
-    <t>Update non index</t>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
@@ -94,6 +96,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -125,10 +135,10 @@
         <v>8.0</v>
       </c>
       <c r="B4" s="1">
-        <v>89.12</v>
+        <v>93.04</v>
       </c>
       <c r="C4" s="1">
-        <v>114.25</v>
+        <v>121.67</v>
       </c>
     </row>
     <row r="5">
@@ -136,10 +146,10 @@
         <v>16.0</v>
       </c>
       <c r="B5" s="1">
-        <v>174.59</v>
+        <v>173.2</v>
       </c>
       <c r="C5" s="1">
-        <v>148.9</v>
+        <v>138.15</v>
       </c>
     </row>
     <row r="6">
@@ -147,10 +157,10 @@
         <v>32.0</v>
       </c>
       <c r="B6" s="1">
-        <v>294.46</v>
+        <v>203.41</v>
       </c>
       <c r="C6" s="1">
-        <v>122.18</v>
+        <v>139.21</v>
       </c>
     </row>
     <row r="7">
@@ -158,10 +168,10 @@
         <v>64.0</v>
       </c>
       <c r="B7" s="1">
-        <v>334.93</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="1">
-        <v>114.25</v>
+        <v>123.83</v>
       </c>
     </row>
     <row r="8">
@@ -169,10 +179,10 @@
         <v>128.0</v>
       </c>
       <c r="B8" s="1">
-        <v>333.16</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="1">
-        <v>102.78</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="9">
@@ -180,10 +190,10 @@
         <v>256.0</v>
       </c>
       <c r="B9" s="1">
-        <v>335.85</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1">
-        <v>121.64</v>
+        <v>111.88</v>
       </c>
     </row>
     <row r="10">
@@ -191,10 +201,10 @@
         <v>512.0</v>
       </c>
       <c r="B10" s="1">
-        <v>328.57</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="1">
-        <v>107.45</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -218,10 +228,10 @@
         <v>8.0</v>
       </c>
       <c r="B16" s="1">
-        <v>586.07</v>
+        <v>537.7</v>
       </c>
       <c r="C16" s="1">
-        <v>684.5</v>
+        <v>709.17</v>
       </c>
     </row>
     <row r="17">
@@ -229,10 +239,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1">
-        <v>877.79</v>
+        <v>855.34</v>
       </c>
       <c r="C17" s="1">
-        <v>1070.15</v>
+        <v>1163.62</v>
       </c>
     </row>
     <row r="18">
@@ -240,10 +250,10 @@
         <v>32.0</v>
       </c>
       <c r="B18" s="1">
-        <v>1295.96</v>
+        <v>700.98</v>
       </c>
       <c r="C18" s="1">
-        <v>1436.19</v>
+        <v>1380.17</v>
       </c>
     </row>
     <row r="19">
@@ -251,10 +261,10 @@
         <v>64.0</v>
       </c>
       <c r="B19" s="1">
-        <v>1543.43</v>
+        <v>0.0</v>
       </c>
       <c r="C19" s="1">
-        <v>1228.78</v>
+        <v>1446.27</v>
       </c>
     </row>
     <row r="20">
@@ -262,10 +272,10 @@
         <v>128.0</v>
       </c>
       <c r="B20" s="1">
-        <v>1187.18</v>
+        <v>0.0</v>
       </c>
       <c r="C20" s="1">
-        <v>1329.01</v>
+        <v>1220.08</v>
       </c>
     </row>
     <row r="21">
@@ -273,10 +283,10 @@
         <v>256.0</v>
       </c>
       <c r="B21" s="1">
-        <v>104.68</v>
+        <v>0.0</v>
       </c>
       <c r="C21" s="1">
-        <v>996.91</v>
+        <v>933.3</v>
       </c>
     </row>
     <row r="22">
@@ -284,10 +294,10 @@
         <v>512.0</v>
       </c>
       <c r="B22" s="1">
-        <v>43.44</v>
+        <v>0.0</v>
       </c>
       <c r="C22" s="1">
-        <v>283.52</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -311,7 +321,10 @@
         <v>8.0</v>
       </c>
       <c r="B28" s="1">
-        <v>77.06</v>
+        <v>66.86</v>
+      </c>
+      <c r="C28" s="1">
+        <v>99.77</v>
       </c>
     </row>
     <row r="29">
@@ -319,7 +332,10 @@
         <v>16.0</v>
       </c>
       <c r="B29" s="1">
-        <v>120.64</v>
+        <v>78.37</v>
+      </c>
+      <c r="C29" s="1">
+        <v>110.93</v>
       </c>
     </row>
     <row r="30">
@@ -327,7 +343,10 @@
         <v>32.0</v>
       </c>
       <c r="B30" s="1">
-        <v>124.57</v>
+        <v>67.9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>110.74</v>
       </c>
     </row>
     <row r="31">
@@ -335,7 +354,10 @@
         <v>64.0</v>
       </c>
       <c r="B31" s="1">
-        <v>111.94</v>
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>94.37</v>
       </c>
     </row>
     <row r="32">
@@ -343,7 +365,10 @@
         <v>128.0</v>
       </c>
       <c r="B32" s="1">
-        <v>41.23</v>
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>73.78</v>
       </c>
     </row>
     <row r="33">
@@ -351,7 +376,10 @@
         <v>256.0</v>
       </c>
       <c r="B33" s="1">
-        <v>37.85</v>
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41.05</v>
       </c>
     </row>
     <row r="34">
@@ -359,7 +387,10 @@
         <v>512.0</v>
       </c>
       <c r="B34" s="1">
-        <v>37.7</v>
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -383,10 +414,10 @@
         <v>8.0</v>
       </c>
       <c r="B40" s="1">
-        <v>1400.13</v>
+        <v>1476.95</v>
       </c>
       <c r="C40" s="1">
-        <v>1185.82</v>
+        <v>1302.41</v>
       </c>
     </row>
     <row r="41">
@@ -394,10 +425,10 @@
         <v>16.0</v>
       </c>
       <c r="B41" s="1">
-        <v>2186.91</v>
+        <v>2664.87</v>
       </c>
       <c r="C41" s="1">
-        <v>2159.21</v>
+        <v>2390.01</v>
       </c>
     </row>
     <row r="42">
@@ -405,10 +436,10 @@
         <v>32.0</v>
       </c>
       <c r="B42" s="1">
-        <v>3385.21</v>
+        <v>2499.71</v>
       </c>
       <c r="C42" s="1">
-        <v>3459.35</v>
+        <v>3790.72</v>
       </c>
     </row>
     <row r="43">
@@ -416,10 +447,10 @@
         <v>64.0</v>
       </c>
       <c r="B43" s="1">
-        <v>4822.46</v>
+        <v>0.0</v>
       </c>
       <c r="C43" s="1">
-        <v>4343.49</v>
+        <v>4587.18</v>
       </c>
     </row>
     <row r="44">
@@ -427,10 +458,10 @@
         <v>128.0</v>
       </c>
       <c r="B44" s="1">
-        <v>6012.32</v>
+        <v>0.0</v>
       </c>
       <c r="C44" s="1">
-        <v>5073.61</v>
+        <v>4530.93</v>
       </c>
     </row>
     <row r="45">
@@ -438,10 +469,10 @@
         <v>256.0</v>
       </c>
       <c r="B45" s="1">
-        <v>6782.67</v>
+        <v>0.0</v>
       </c>
       <c r="C45" s="1">
-        <v>3884.36</v>
+        <v>4537.47</v>
       </c>
     </row>
     <row r="46">
@@ -449,10 +480,10 @@
         <v>512.0</v>
       </c>
       <c r="B46" s="1">
-        <v>6683.51</v>
+        <v>0.0</v>
       </c>
       <c r="C46" s="1">
-        <v>4143.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -476,10 +507,10 @@
         <v>8.0</v>
       </c>
       <c r="B52" s="1">
-        <v>6268.16</v>
+        <v>2862.98</v>
       </c>
       <c r="C52" s="1">
-        <v>9186.73</v>
+        <v>4377.81</v>
       </c>
     </row>
     <row r="53">
@@ -487,10 +518,10 @@
         <v>16.0</v>
       </c>
       <c r="B53" s="1">
-        <v>8717.9</v>
+        <v>1034.95</v>
       </c>
       <c r="C53" s="1">
-        <v>10042.15</v>
+        <v>8316.74</v>
       </c>
     </row>
     <row r="54">
@@ -498,10 +529,10 @@
         <v>32.0</v>
       </c>
       <c r="B54" s="1">
-        <v>9231.7</v>
+        <v>787.21</v>
       </c>
       <c r="C54" s="1">
-        <v>10610.4</v>
+        <v>9681.71</v>
       </c>
     </row>
     <row r="55">
@@ -509,10 +540,10 @@
         <v>64.0</v>
       </c>
       <c r="B55" s="1">
-        <v>9472.19</v>
+        <v>0.0</v>
       </c>
       <c r="C55" s="1">
-        <v>8902.99</v>
+        <v>9929.23</v>
       </c>
     </row>
     <row r="56">
@@ -520,10 +551,10 @@
         <v>128.0</v>
       </c>
       <c r="B56" s="1">
-        <v>8510.26</v>
+        <v>0.0</v>
       </c>
       <c r="C56" s="1">
-        <v>10465.06</v>
+        <v>9727.95</v>
       </c>
     </row>
     <row r="57">
@@ -531,10 +562,10 @@
         <v>256.0</v>
       </c>
       <c r="B57" s="1">
-        <v>16730.37</v>
+        <v>0.0</v>
       </c>
       <c r="C57" s="1">
-        <v>9103.63</v>
+        <v>9030.5</v>
       </c>
     </row>
     <row r="58">
@@ -542,382 +573,1700 @@
         <v>512.0</v>
       </c>
       <c r="B58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3213.74</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4696.84</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>833.35</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8442.85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>960.77</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9494.48</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>9225.19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>9425.28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9052.42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>103.7</v>
+      </c>
+      <c r="C145" s="1">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>132.49</v>
+      </c>
+      <c r="C146" s="1">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B147" s="1">
+        <v>256.32</v>
+      </c>
+      <c r="C147" s="1">
+        <v>383.26</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B148" s="1">
+        <v>566.42</v>
+      </c>
+      <c r="C148" s="1">
+        <v>853.56</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2796.3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2720.21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5418.26</v>
+      </c>
+      <c r="C150" s="1">
+        <v>4601.26</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B151" s="1">
+        <v>9708.95</v>
+      </c>
+      <c r="C151" s="1">
+        <v>13277.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>89.12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>174.59</v>
+      </c>
+      <c r="C5" s="1">
+        <v>188.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>294.46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>182.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>334.93</v>
+      </c>
+      <c r="C7" s="1">
+        <v>180.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>333.16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>175.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>335.85</v>
+      </c>
+      <c r="C9" s="1">
+        <v>166.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>328.57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>158.65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>586.07</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1013.55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>877.79</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1669.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1295.96</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2007.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1543.43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2042.83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1187.18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1894.43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>104.68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1573.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43.44</v>
+      </c>
+      <c r="C22" s="1">
+        <v>676.02</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>77.06</v>
+      </c>
+      <c r="C28" s="1">
+        <v>117.46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>120.64</v>
+      </c>
+      <c r="C29" s="1">
+        <v>147.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>124.57</v>
+      </c>
+      <c r="C30" s="1">
+        <v>148.39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>111.94</v>
+      </c>
+      <c r="C31" s="1">
+        <v>140.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41.23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>124.71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>37.85</v>
+      </c>
+      <c r="C33" s="1">
+        <v>90.22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>37.7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>51.91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1400.13</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1473.72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2186.91</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2887.64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3385.21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5276.37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4822.46</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6776.97</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6012.32</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7221.67</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6782.67</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6698.15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6683.51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6010.57</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6268.16</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5589.74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8717.9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11768.48</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9231.7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14078.73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9472.19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>16225.03</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>8510.26</v>
+      </c>
+      <c r="C56" s="1">
+        <v>14580.04</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>16730.37</v>
+      </c>
+      <c r="C57" s="1">
+        <v>13968.54</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B58" s="1">
         <v>15957.7</v>
       </c>
       <c r="C58" s="1">
-        <v>8889.43</v>
+        <v>12029.92</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6799.63</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6519.94</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9657.62</v>
+      </c>
+      <c r="C63" s="1">
+        <v>12138.78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>11027.5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>14192.16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10646.01</v>
+      </c>
+      <c r="C65" s="1">
+        <v>14771.99</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>14193.89</v>
+      </c>
+      <c r="C66" s="1">
+        <v>14253.62</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>16241.89</v>
+      </c>
+      <c r="C67" s="1">
+        <v>13660.47</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15927.84</v>
+      </c>
+      <c r="C68" s="1">
+        <v>12680.73</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B166" s="1">
+        <v>103.7</v>
+      </c>
+      <c r="C166" s="1">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B167" s="1">
+        <v>132.49</v>
+      </c>
+      <c r="C167" s="1">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B168" s="1">
+        <v>256.32</v>
+      </c>
+      <c r="C168" s="1">
+        <v>383.26</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B169" s="1">
+        <v>566.42</v>
+      </c>
+      <c r="C169" s="1">
+        <v>853.56</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2796.3</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2720.21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5418.26</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4601.26</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B172" s="1">
+        <v>9708.95</v>
+      </c>
+      <c r="C172" s="1">
+        <v>13277.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>112.92</v>
+      </c>
+      <c r="C4" s="1">
+        <v>178.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>227.23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>341.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>430.71</v>
+      </c>
+      <c r="C6" s="1">
+        <v>650.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>667.92</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1053.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>656.63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1199.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>637.1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1171.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>600.16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1160.01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>801.07</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1041.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1484.03</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1916.76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2726.83</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3575.82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4300.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5581.94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6131.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6902.87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5833.79</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3115.47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>53.11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>780.08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>97.17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>156.91</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>191.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>296.21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>351.58</v>
+      </c>
+      <c r="C30" s="1">
+        <v>522.11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>496.2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>791.94</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>510.23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>720.13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>107.41</v>
+      </c>
+      <c r="C33" s="1">
+        <v>170.57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>93.11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>367.08</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1983.47</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1458.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3390.81</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2738.85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6146.59</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5262.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9972.86</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8956.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>13826.55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>13088.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>21009.21</v>
+      </c>
+      <c r="C45" s="1">
+        <v>17794.62</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>30050.97</v>
+      </c>
+      <c r="C46" s="1">
+        <v>17095.96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5632.84</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5896.57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12348.19</v>
+      </c>
+      <c r="C53" s="1">
+        <v>16670.55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>25833.56</v>
+      </c>
+      <c r="C54" s="1">
+        <v>46464.49</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45275.26</v>
+      </c>
+      <c r="C55" s="1">
+        <v>84133.39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>65622.49</v>
+      </c>
+      <c r="C56" s="1">
+        <v>87381.81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>75361.03</v>
+      </c>
+      <c r="C57" s="1">
+        <v>55809.95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>512.0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>71440.54</v>
+      </c>
+      <c r="C58" s="1">
+        <v>29662.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>5885.75</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5624.21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="B64" s="1">
-        <v>6575.96</v>
+        <v>6108.93</v>
       </c>
       <c r="C64" s="1">
-        <v>4386.44</v>
+        <v>7140.85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="B65" s="1">
-        <v>6336.8</v>
+        <v>13495.44</v>
       </c>
       <c r="C65" s="1">
-        <v>6076.69</v>
+        <v>21889.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="B66" s="1">
-        <v>5873.15</v>
+        <v>28346.25</v>
       </c>
       <c r="C66" s="1">
-        <v>4473.23</v>
+        <v>57310.65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>128.0</v>
+        <v>64.0</v>
       </c>
       <c r="B67" s="1">
-        <v>5432.59</v>
+        <v>49252.84</v>
       </c>
       <c r="C67" s="1">
-        <v>5551.21</v>
+        <v>91803.09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>256.0</v>
+        <v>128.0</v>
       </c>
       <c r="B68" s="1">
-        <v>5050.91</v>
+        <v>66237.14</v>
       </c>
       <c r="C68" s="1">
-        <v>5216.77</v>
+        <v>93821.66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>73122.37</v>
+      </c>
+      <c r="C69" s="1">
+        <v>49671.72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
         <v>512.0</v>
       </c>
-      <c r="B69" s="1">
-        <v>4923.58</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5728.62</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="B70" s="1">
+        <v>68095.07</v>
+      </c>
+      <c r="C70" s="1">
+        <v>26668.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+    <row r="144">
+      <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1">
+      <c r="B144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
         <v>8.0</v>
       </c>
-      <c r="B74" s="1">
-        <v>5215.46</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5851.74</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1">
+      <c r="B145" s="1">
+        <v>103.7</v>
+      </c>
+      <c r="C145" s="1">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
         <v>16.0</v>
       </c>
-      <c r="B75" s="1">
-        <v>5982.29</v>
-      </c>
-      <c r="C75" s="1">
-        <v>6335.31</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1">
+      <c r="B146" s="1">
+        <v>132.49</v>
+      </c>
+      <c r="C146" s="1">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
         <v>32.0</v>
       </c>
-      <c r="B76" s="1">
-        <v>6661.32</v>
-      </c>
-      <c r="C76" s="1">
-        <v>6131.93</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1">
+      <c r="B147" s="1">
+        <v>256.32</v>
+      </c>
+      <c r="C147" s="1">
+        <v>383.26</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
         <v>64.0</v>
       </c>
-      <c r="B77" s="1">
-        <v>6893.34</v>
-      </c>
-      <c r="C77" s="1">
-        <v>5172.28</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1">
+      <c r="B148" s="1">
+        <v>566.42</v>
+      </c>
+      <c r="C148" s="1">
+        <v>853.56</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
         <v>128.0</v>
       </c>
-      <c r="B78" s="1">
-        <v>6657.93</v>
-      </c>
-      <c r="C78" s="1">
-        <v>6038.46</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1">
+      <c r="B149" s="1">
+        <v>2796.3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2720.21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
         <v>256.0</v>
       </c>
-      <c r="B79" s="1">
-        <v>6144.84</v>
-      </c>
-      <c r="C79" s="1">
-        <v>5240.84</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1">
+      <c r="B150" s="1">
+        <v>5418.26</v>
+      </c>
+      <c r="C150" s="1">
+        <v>4601.26</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
         <v>512.0</v>
       </c>
-      <c r="B80" s="1">
-        <v>5868.54</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5704.58</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>6799.63</v>
-      </c>
-      <c r="C85" s="1">
-        <v>7734.77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>9657.62</v>
-      </c>
-      <c r="C86" s="1">
-        <v>11249.83</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>11027.5</v>
-      </c>
-      <c r="C87" s="1">
-        <v>10308.2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>10646.01</v>
-      </c>
-      <c r="C88" s="1">
-        <v>7959.61</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>128.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>14193.89</v>
-      </c>
-      <c r="C89" s="1">
-        <v>9780.15</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>256.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>16241.89</v>
-      </c>
-      <c r="C90" s="1">
-        <v>8649.64</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>512.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>15927.84</v>
-      </c>
-      <c r="C91" s="1">
-        <v>8648.73</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>6929.09</v>
-      </c>
-      <c r="C96" s="1">
-        <v>10255.06</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>10103.62</v>
-      </c>
-      <c r="C97" s="1">
-        <v>11716.63</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>11947.89</v>
-      </c>
-      <c r="C98" s="1">
-        <v>9269.77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>11878.0</v>
-      </c>
-      <c r="C99" s="1">
-        <v>8796.78</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>128.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>16460.42</v>
-      </c>
-      <c r="C100" s="1">
-        <v>9640.39</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>256.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>16824.38</v>
-      </c>
-      <c r="C101" s="1">
-        <v>8686.2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>512.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>15231.53</v>
-      </c>
-      <c r="C102" s="1">
-        <v>8967.4</v>
+      <c r="B151" s="1">
+        <v>9708.95</v>
+      </c>
+      <c r="C151" s="1">
+        <v>13277.68</v>
       </c>
     </row>
   </sheetData>

--- a/logs/EC - Consolidated log.xlsx
+++ b/logs/EC - Consolidated log.xlsx
@@ -1467,97 +1467,97 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+    <row r="112">
+      <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+    <row r="114">
+      <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
+    <row r="115">
+      <c r="A115" s="1">
         <v>8.0</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B115" s="1">
         <v>103.7</v>
       </c>
-      <c r="C166" s="1">
-        <v>88.04</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1">
+      <c r="C115" s="1">
+        <v>67.79</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
         <v>16.0</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B116" s="1">
         <v>132.49</v>
       </c>
-      <c r="C167" s="1">
-        <v>141.1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1">
+      <c r="C116" s="1">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
         <v>32.0</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B117" s="1">
         <v>256.32</v>
       </c>
-      <c r="C168" s="1">
-        <v>383.26</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1">
+      <c r="C117" s="1">
+        <v>214.54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
         <v>64.0</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B118" s="1">
         <v>566.42</v>
       </c>
-      <c r="C169" s="1">
-        <v>853.56</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1">
+      <c r="C118" s="1">
+        <v>453.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
         <v>128.0</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B119" s="1">
         <v>2796.3</v>
       </c>
-      <c r="C170" s="1">
-        <v>2720.21</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1">
+      <c r="C119" s="1">
+        <v>1009.34</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
         <v>256.0</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B120" s="1">
         <v>5418.26</v>
       </c>
-      <c r="C171" s="1">
-        <v>4601.26</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1">
+      <c r="C120" s="1">
+        <v>2752.25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
         <v>512.0</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B121" s="1">
         <v>9708.95</v>
       </c>
-      <c r="C172" s="1">
-        <v>13277.68</v>
+      <c r="C121" s="1">
+        <v>8556.25</v>
       </c>
     </row>
   </sheetData>
